--- a/Results/Results_tables/Supplementary_table6_feature_selection.xlsx
+++ b/Results/Results_tables/Supplementary_table6_feature_selection.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Z Chen\Documents\PhD Year 3\ataxia_paper\Brain submission\Final_submission_supp_tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Z Chen\Documents\PhD Year 3\ataxia_paper\Brain_revision\Supplementary_tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5821EB7-4A05-4E36-8DB8-25D7DB9F9728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{070BCF2B-1572-4669-B471-15280F9E7BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{5B373E63-F90B-4A76-88B5-5AA06FC1CBC6}"/>
   </bookViews>
@@ -355,7 +355,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,12 +404,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -418,6 +412,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -736,41 +736,41 @@
   <dimension ref="A1:E89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="50.3671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.3671875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.83984375" style="2"/>
     <col min="3" max="3" width="4.05078125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.9453125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5234375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.9453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5234375" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="8.83984375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5" ht="23.4" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5" ht="23.4" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A4" s="1"/>
@@ -779,25 +779,25 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="2">
@@ -806,15 +806,15 @@
       <c r="C6" s="2">
         <v>1</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="4">
         <v>0.84</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="4">
         <v>5.0031530000000002</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="2">
@@ -823,15 +823,15 @@
       <c r="C7" s="2">
         <v>1</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="4">
         <v>0.98</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="4">
         <v>4.4109749999999996</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="2">
@@ -840,15 +840,15 @@
       <c r="C8" s="2">
         <v>1</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="4">
         <v>0.61363599999999996</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="4">
         <v>3.0525340000000001</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="2">
@@ -857,15 +857,15 @@
       <c r="C9" s="2">
         <v>1</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="4">
         <v>0.73469399999999996</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="4">
         <v>2.8969239999999998</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="2">
@@ -874,15 +874,15 @@
       <c r="C10" s="2">
         <v>1</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="4">
         <v>0.74468100000000004</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="4">
         <v>2.7108889999999999</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="2">
@@ -891,15 +891,15 @@
       <c r="C11" s="2">
         <v>1</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="4">
         <v>0.68085099999999998</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="4">
         <v>2.6004580000000002</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="2">
@@ -908,15 +908,15 @@
       <c r="C12" s="2">
         <v>1</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="4">
         <v>0.58333299999999999</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="4">
         <v>2.3568720000000001</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="2">
@@ -925,15 +925,15 @@
       <c r="C13" s="2">
         <v>1</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="4">
         <v>0.97826100000000005</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="4">
         <v>2.3333599999999999</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="2">
@@ -942,15 +942,15 @@
       <c r="C14" s="2">
         <v>1</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="4">
         <v>0.61702100000000004</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="4">
         <v>2.2958530000000001</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="2">
@@ -959,15 +959,15 @@
       <c r="C15" s="2">
         <v>1</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="4">
         <v>0.65116300000000005</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="4">
         <v>2.0529229999999998</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="2">
@@ -976,15 +976,15 @@
       <c r="C16" s="2">
         <v>1</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="4">
         <v>0.80952400000000002</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="4">
         <v>1.949074</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="2">
@@ -993,15 +993,15 @@
       <c r="C17" s="2">
         <v>1</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="4">
         <v>0.66666700000000001</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="4">
         <v>1.901991</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="2">
@@ -1010,15 +1010,15 @@
       <c r="C18" s="2">
         <v>1</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="4">
         <v>0.91304300000000005</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="4">
         <v>1.871119</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="2">
@@ -1027,15 +1027,15 @@
       <c r="C19" s="2">
         <v>1</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="4">
         <v>0.8</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="4">
         <v>1.864331</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="2">
@@ -1044,15 +1044,15 @@
       <c r="C20" s="2">
         <v>1</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="4">
         <v>0.625</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="4">
         <v>1.7244569999999999</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="2">
@@ -1061,15 +1061,15 @@
       <c r="C21" s="2">
         <v>1</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="4">
         <v>0.56410300000000002</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="4">
         <v>1.71862</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="2">
@@ -1078,15 +1078,15 @@
       <c r="C22" s="2">
         <v>1</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="4">
         <v>0.875</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="4">
         <v>1.6313979999999999</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B23" s="2">
@@ -1095,15 +1095,15 @@
       <c r="C23" s="2">
         <v>1</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="4">
         <v>0.765957</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="4">
         <v>1.555161</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B24" s="2">
@@ -1112,15 +1112,15 @@
       <c r="C24" s="2">
         <v>1</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="4">
         <v>0.97560999999999998</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="4">
         <v>1.3413919999999999</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B25" s="2">
@@ -1129,15 +1129,15 @@
       <c r="C25" s="2">
         <v>1</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="4">
         <v>0.868421</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="4">
         <v>1.3232820000000001</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B26" s="2">
@@ -1146,15 +1146,15 @@
       <c r="C26" s="2">
         <v>1</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="4">
         <v>0.63333300000000003</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="4">
         <v>1.3129139999999999</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B27" s="2">
@@ -1163,15 +1163,15 @@
       <c r="C27" s="2">
         <v>1</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="4">
         <v>0.5625</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="4">
         <v>1.2847489999999999</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B28" s="2">
@@ -1180,15 +1180,15 @@
       <c r="C28" s="2">
         <v>1</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="4">
         <v>0.68421100000000001</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="4">
         <v>1.264667</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B29" s="2">
@@ -1197,15 +1197,15 @@
       <c r="C29" s="2">
         <v>1</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="4">
         <v>0.735294</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="4">
         <v>1.2308699999999999</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B30" s="2">
@@ -1214,15 +1214,15 @@
       <c r="C30" s="2">
         <v>1</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="4">
         <v>0.80555600000000005</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30" s="4">
         <v>1.214134</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B31" s="2">
@@ -1231,15 +1231,15 @@
       <c r="C31" s="2">
         <v>1</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="4">
         <v>0.5</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E31" s="4">
         <v>1.1605380000000001</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B32" s="2">
@@ -1248,15 +1248,15 @@
       <c r="C32" s="2">
         <v>1</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32" s="4">
         <v>0.7</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E32" s="4">
         <v>1.1472899999999999</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B33" s="2">
@@ -1265,15 +1265,15 @@
       <c r="C33" s="2">
         <v>1</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33" s="4">
         <v>0.71428599999999998</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E33" s="4">
         <v>1.1376820000000001</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B34" s="2">
@@ -1282,15 +1282,15 @@
       <c r="C34" s="2">
         <v>1</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="4">
         <v>0.6</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E34" s="4">
         <v>1.127005</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B35" s="2">
@@ -1299,15 +1299,15 @@
       <c r="C35" s="2">
         <v>1</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D35" s="4">
         <v>0.85714299999999999</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E35" s="4">
         <v>1.1117490000000001</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B36" s="2">
@@ -1316,15 +1316,15 @@
       <c r="C36" s="2">
         <v>1</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36" s="4">
         <v>0.6</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E36" s="4">
         <v>1.020308</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B37" s="2">
@@ -1333,15 +1333,15 @@
       <c r="C37" s="2">
         <v>1</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D37" s="4">
         <v>0.61290299999999998</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E37" s="4">
         <v>0.99138300000000001</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B38" s="2">
@@ -1350,15 +1350,15 @@
       <c r="C38" s="2">
         <v>1</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D38" s="4">
         <v>0.71428599999999998</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E38" s="4">
         <v>0.95095200000000002</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B39" s="2">
@@ -1367,15 +1367,15 @@
       <c r="C39" s="2">
         <v>1</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D39" s="4">
         <v>0.63888900000000004</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E39" s="4">
         <v>0.87027399999999999</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B40" s="2">
@@ -1384,15 +1384,15 @@
       <c r="C40" s="2">
         <v>1</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D40" s="4">
         <v>0.709677</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E40" s="4">
         <v>0.84498700000000004</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B41" s="2">
@@ -1401,15 +1401,15 @@
       <c r="C41" s="2">
         <v>1</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D41" s="4">
         <v>0.73333300000000001</v>
       </c>
-      <c r="E41" s="6">
+      <c r="E41" s="4">
         <v>0.82658600000000004</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B42" s="2">
@@ -1418,15 +1418,15 @@
       <c r="C42" s="2">
         <v>1</v>
       </c>
-      <c r="D42" s="6">
+      <c r="D42" s="4">
         <v>0.736842</v>
       </c>
-      <c r="E42" s="6">
+      <c r="E42" s="4">
         <v>0.78068300000000002</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B43" s="2">
@@ -1435,15 +1435,15 @@
       <c r="C43" s="2">
         <v>-1</v>
       </c>
-      <c r="D43" s="6">
+      <c r="D43" s="4">
         <v>0.65</v>
       </c>
-      <c r="E43" s="6">
+      <c r="E43" s="4">
         <v>-0.42529</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B44" s="2">
@@ -1452,15 +1452,15 @@
       <c r="C44" s="2">
         <v>-1</v>
       </c>
-      <c r="D44" s="6">
+      <c r="D44" s="4">
         <v>0.95238100000000003</v>
       </c>
-      <c r="E44" s="6">
+      <c r="E44" s="4">
         <v>-0.61270999999999998</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B45" s="2">
@@ -1469,15 +1469,15 @@
       <c r="C45" s="2">
         <v>-1</v>
       </c>
-      <c r="D45" s="6">
+      <c r="D45" s="4">
         <v>0.91176500000000005</v>
       </c>
-      <c r="E45" s="6">
+      <c r="E45" s="4">
         <v>-0.62446000000000002</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B46" s="2">
@@ -1486,15 +1486,15 @@
       <c r="C46" s="2">
         <v>-1</v>
       </c>
-      <c r="D46" s="6">
-        <v>1</v>
-      </c>
-      <c r="E46" s="6">
+      <c r="D46" s="4">
+        <v>1</v>
+      </c>
+      <c r="E46" s="4">
         <v>-0.68144000000000005</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B47" s="2">
@@ -1503,15 +1503,15 @@
       <c r="C47" s="2">
         <v>-1</v>
       </c>
-      <c r="D47" s="6">
+      <c r="D47" s="4">
         <v>0.89655200000000002</v>
       </c>
-      <c r="E47" s="6">
+      <c r="E47" s="4">
         <v>-0.68596000000000001</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B48" s="2">
@@ -1520,15 +1520,15 @@
       <c r="C48" s="2">
         <v>-1</v>
       </c>
-      <c r="D48" s="6">
+      <c r="D48" s="4">
         <v>0.6</v>
       </c>
-      <c r="E48" s="6">
+      <c r="E48" s="4">
         <v>-0.71799000000000002</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B49" s="2">
@@ -1537,15 +1537,15 @@
       <c r="C49" s="2">
         <v>-1</v>
       </c>
-      <c r="D49" s="6">
-        <v>1</v>
-      </c>
-      <c r="E49" s="6">
+      <c r="D49" s="4">
+        <v>1</v>
+      </c>
+      <c r="E49" s="4">
         <v>-0.90105000000000002</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B50" s="2">
@@ -1554,15 +1554,15 @@
       <c r="C50" s="2">
         <v>-1</v>
       </c>
-      <c r="D50" s="6">
+      <c r="D50" s="4">
         <v>0.90909099999999998</v>
       </c>
-      <c r="E50" s="6">
+      <c r="E50" s="4">
         <v>-0.96799000000000002</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B51" s="2">
@@ -1571,15 +1571,15 @@
       <c r="C51" s="2">
         <v>-1</v>
       </c>
-      <c r="D51" s="6">
+      <c r="D51" s="4">
         <v>0.55882399999999999</v>
       </c>
-      <c r="E51" s="6">
+      <c r="E51" s="4">
         <v>-0.98175000000000001</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="3" t="s">
         <v>51</v>
       </c>
       <c r="B52" s="2">
@@ -1588,15 +1588,15 @@
       <c r="C52" s="2">
         <v>-1</v>
       </c>
-      <c r="D52" s="6">
+      <c r="D52" s="4">
         <v>0.61764699999999995</v>
       </c>
-      <c r="E52" s="6">
+      <c r="E52" s="4">
         <v>-0.99156999999999995</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A53" s="5" t="s">
+      <c r="A53" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B53" s="2">
@@ -1605,15 +1605,15 @@
       <c r="C53" s="2">
         <v>-1</v>
       </c>
-      <c r="D53" s="6">
+      <c r="D53" s="4">
         <v>0.56000000000000005</v>
       </c>
-      <c r="E53" s="6">
+      <c r="E53" s="4">
         <v>-1.0099800000000001</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A54" s="5" t="s">
+      <c r="A54" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B54" s="2">
@@ -1622,15 +1622,15 @@
       <c r="C54" s="2">
         <v>-1</v>
       </c>
-      <c r="D54" s="6">
+      <c r="D54" s="4">
         <v>0.730769</v>
       </c>
-      <c r="E54" s="6">
+      <c r="E54" s="4">
         <v>-1.0127200000000001</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A55" s="5" t="s">
+      <c r="A55" s="3" t="s">
         <v>54</v>
       </c>
       <c r="B55" s="2">
@@ -1639,15 +1639,15 @@
       <c r="C55" s="2">
         <v>-1</v>
       </c>
-      <c r="D55" s="6">
+      <c r="D55" s="4">
         <v>0.53571400000000002</v>
       </c>
-      <c r="E55" s="6">
+      <c r="E55" s="4">
         <v>-1.07559</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A56" s="5" t="s">
+      <c r="A56" s="3" t="s">
         <v>55</v>
       </c>
       <c r="B56" s="2">
@@ -1656,15 +1656,15 @@
       <c r="C56" s="2">
         <v>-1</v>
       </c>
-      <c r="D56" s="6">
+      <c r="D56" s="4">
         <v>0.71794899999999995</v>
       </c>
-      <c r="E56" s="6">
+      <c r="E56" s="4">
         <v>-1.11711</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A57" s="5" t="s">
+      <c r="A57" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B57" s="2">
@@ -1673,15 +1673,15 @@
       <c r="C57" s="2">
         <v>-1</v>
       </c>
-      <c r="D57" s="6">
+      <c r="D57" s="4">
         <v>0.88888900000000004</v>
       </c>
-      <c r="E57" s="6">
+      <c r="E57" s="4">
         <v>-1.1924699999999999</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A58" s="5" t="s">
+      <c r="A58" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B58" s="2">
@@ -1690,15 +1690,15 @@
       <c r="C58" s="2">
         <v>-1</v>
       </c>
-      <c r="D58" s="6">
+      <c r="D58" s="4">
         <v>0.86666699999999997</v>
       </c>
-      <c r="E58" s="6">
+      <c r="E58" s="4">
         <v>-1.2364200000000001</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A59" s="5" t="s">
+      <c r="A59" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B59" s="2">
@@ -1707,15 +1707,15 @@
       <c r="C59" s="2">
         <v>-1</v>
       </c>
-      <c r="D59" s="6">
+      <c r="D59" s="4">
         <v>0.64705900000000005</v>
       </c>
-      <c r="E59" s="6">
+      <c r="E59" s="4">
         <v>-1.24329</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A60" s="5" t="s">
+      <c r="A60" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B60" s="2">
@@ -1724,15 +1724,15 @@
       <c r="C60" s="2">
         <v>-1</v>
       </c>
-      <c r="D60" s="6">
+      <c r="D60" s="4">
         <v>0.85714299999999999</v>
       </c>
-      <c r="E60" s="6">
+      <c r="E60" s="4">
         <v>-1.25309</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A61" s="5" t="s">
+      <c r="A61" s="3" t="s">
         <v>60</v>
       </c>
       <c r="B61" s="2">
@@ -1741,15 +1741,15 @@
       <c r="C61" s="2">
         <v>-1</v>
       </c>
-      <c r="D61" s="6">
+      <c r="D61" s="4">
         <v>0.96875</v>
       </c>
-      <c r="E61" s="6">
+      <c r="E61" s="4">
         <v>-1.2889999999999999</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A62" s="5" t="s">
+      <c r="A62" s="3" t="s">
         <v>61</v>
       </c>
       <c r="B62" s="2">
@@ -1758,15 +1758,15 @@
       <c r="C62" s="2">
         <v>-1</v>
       </c>
-      <c r="D62" s="6">
+      <c r="D62" s="4">
         <v>0.71875</v>
       </c>
-      <c r="E62" s="6">
+      <c r="E62" s="4">
         <v>-1.3057099999999999</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A63" s="5" t="s">
+      <c r="A63" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B63" s="2">
@@ -1775,15 +1775,15 @@
       <c r="C63" s="2">
         <v>-1</v>
       </c>
-      <c r="D63" s="6">
+      <c r="D63" s="4">
         <v>0.66666700000000001</v>
       </c>
-      <c r="E63" s="6">
+      <c r="E63" s="4">
         <v>-1.31291</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A64" s="5" t="s">
+      <c r="A64" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B64" s="2">
@@ -1792,15 +1792,15 @@
       <c r="C64" s="2">
         <v>-1</v>
       </c>
-      <c r="D64" s="6">
+      <c r="D64" s="4">
         <v>0.86046500000000004</v>
       </c>
-      <c r="E64" s="6">
+      <c r="E64" s="4">
         <v>-1.35286</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A65" s="5" t="s">
+      <c r="A65" s="3" t="s">
         <v>64</v>
       </c>
       <c r="B65" s="2">
@@ -1809,15 +1809,15 @@
       <c r="C65" s="2">
         <v>-1</v>
       </c>
-      <c r="D65" s="6">
+      <c r="D65" s="4">
         <v>0.84848500000000004</v>
       </c>
-      <c r="E65" s="6">
+      <c r="E65" s="4">
         <v>-1.3990100000000001</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A66" s="5" t="s">
+      <c r="A66" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B66" s="2">
@@ -1826,15 +1826,15 @@
       <c r="C66" s="2">
         <v>-1</v>
       </c>
-      <c r="D66" s="6">
+      <c r="D66" s="4">
         <v>0.89130399999999999</v>
       </c>
-      <c r="E66" s="6">
+      <c r="E66" s="4">
         <v>-1.4620500000000001</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A67" s="5" t="s">
+      <c r="A67" s="3" t="s">
         <v>66</v>
       </c>
       <c r="B67" s="2">
@@ -1843,15 +1843,15 @@
       <c r="C67" s="2">
         <v>-1</v>
       </c>
-      <c r="D67" s="6">
+      <c r="D67" s="4">
         <v>0.83720899999999998</v>
       </c>
-      <c r="E67" s="6">
+      <c r="E67" s="4">
         <v>-1.49447</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A68" s="5" t="s">
+      <c r="A68" s="3" t="s">
         <v>67</v>
       </c>
       <c r="B68" s="2">
@@ -1860,15 +1860,15 @@
       <c r="C68" s="2">
         <v>-1</v>
       </c>
-      <c r="D68" s="6">
+      <c r="D68" s="4">
         <v>0.61904800000000004</v>
       </c>
-      <c r="E68" s="6">
+      <c r="E68" s="4">
         <v>-1.56534</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A69" s="5" t="s">
+      <c r="A69" s="3" t="s">
         <v>68</v>
       </c>
       <c r="B69" s="2">
@@ -1877,15 +1877,15 @@
       <c r="C69" s="2">
         <v>-1</v>
       </c>
-      <c r="D69" s="6">
-        <v>1</v>
-      </c>
-      <c r="E69" s="6">
+      <c r="D69" s="4">
+        <v>1</v>
+      </c>
+      <c r="E69" s="4">
         <v>-1.59615</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A70" s="5" t="s">
+      <c r="A70" s="3" t="s">
         <v>69</v>
       </c>
       <c r="B70" s="2">
@@ -1894,15 +1894,15 @@
       <c r="C70" s="2">
         <v>-1</v>
       </c>
-      <c r="D70" s="6">
+      <c r="D70" s="4">
         <v>0.63333300000000003</v>
       </c>
-      <c r="E70" s="6">
+      <c r="E70" s="4">
         <v>-1.6262000000000001</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A71" s="5" t="s">
+      <c r="A71" s="3" t="s">
         <v>70</v>
       </c>
       <c r="B71" s="2">
@@ -1911,15 +1911,15 @@
       <c r="C71" s="2">
         <v>-1</v>
       </c>
-      <c r="D71" s="6">
+      <c r="D71" s="4">
         <v>0.86486499999999999</v>
       </c>
-      <c r="E71" s="6">
+      <c r="E71" s="4">
         <v>-1.6505099999999999</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A72" s="5" t="s">
+      <c r="A72" s="3" t="s">
         <v>71</v>
       </c>
       <c r="B72" s="2">
@@ -1928,15 +1928,15 @@
       <c r="C72" s="2">
         <v>-1</v>
       </c>
-      <c r="D72" s="6">
+      <c r="D72" s="4">
         <v>0.78378400000000004</v>
       </c>
-      <c r="E72" s="6">
+      <c r="E72" s="4">
         <v>-1.6739900000000001</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A73" s="5" t="s">
+      <c r="A73" s="3" t="s">
         <v>72</v>
       </c>
       <c r="B73" s="2">
@@ -1945,15 +1945,15 @@
       <c r="C73" s="2">
         <v>-1</v>
       </c>
-      <c r="D73" s="6">
+      <c r="D73" s="4">
         <v>0.91666700000000001</v>
       </c>
-      <c r="E73" s="6">
+      <c r="E73" s="4">
         <v>-1.68662</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A74" s="5" t="s">
+      <c r="A74" s="3" t="s">
         <v>73</v>
       </c>
       <c r="B74" s="2">
@@ -1962,15 +1962,15 @@
       <c r="C74" s="2">
         <v>-1</v>
       </c>
-      <c r="D74" s="6">
+      <c r="D74" s="4">
         <v>0.63829800000000003</v>
       </c>
-      <c r="E74" s="6">
+      <c r="E74" s="4">
         <v>-1.8239399999999999</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A75" s="5" t="s">
+      <c r="A75" s="3" t="s">
         <v>74</v>
       </c>
       <c r="B75" s="2">
@@ -1979,15 +1979,15 @@
       <c r="C75" s="2">
         <v>-1</v>
       </c>
-      <c r="D75" s="6">
+      <c r="D75" s="4">
         <v>0.54166700000000001</v>
       </c>
-      <c r="E75" s="6">
+      <c r="E75" s="4">
         <v>-1.83948</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A76" s="5" t="s">
+      <c r="A76" s="3" t="s">
         <v>75</v>
       </c>
       <c r="B76" s="2">
@@ -1996,15 +1996,15 @@
       <c r="C76" s="2">
         <v>-1</v>
       </c>
-      <c r="D76" s="6">
+      <c r="D76" s="4">
         <v>0.88636400000000004</v>
       </c>
-      <c r="E76" s="6">
+      <c r="E76" s="4">
         <v>-1.8439399999999999</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A77" s="5" t="s">
+      <c r="A77" s="3" t="s">
         <v>76</v>
       </c>
       <c r="B77" s="2">
@@ -2013,15 +2013,15 @@
       <c r="C77" s="2">
         <v>-1</v>
       </c>
-      <c r="D77" s="6">
+      <c r="D77" s="4">
         <v>0.97222200000000003</v>
       </c>
-      <c r="E77" s="6">
+      <c r="E77" s="4">
         <v>-1.90855</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A78" s="5" t="s">
+      <c r="A78" s="3" t="s">
         <v>77</v>
       </c>
       <c r="B78" s="2">
@@ -2030,15 +2030,15 @@
       <c r="C78" s="2">
         <v>-1</v>
       </c>
-      <c r="D78" s="6">
+      <c r="D78" s="4">
         <v>0.86666699999999997</v>
       </c>
-      <c r="E78" s="6">
+      <c r="E78" s="4">
         <v>-1.9427300000000001</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A79" s="5" t="s">
+      <c r="A79" s="3" t="s">
         <v>78</v>
       </c>
       <c r="B79" s="2">
@@ -2047,15 +2047,15 @@
       <c r="C79" s="2">
         <v>-1</v>
       </c>
-      <c r="D79" s="6">
+      <c r="D79" s="4">
         <v>0.9375</v>
       </c>
-      <c r="E79" s="6">
+      <c r="E79" s="4">
         <v>-2.33325</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A80" s="5" t="s">
+      <c r="A80" s="3" t="s">
         <v>79</v>
       </c>
       <c r="B80" s="2">
@@ -2064,15 +2064,15 @@
       <c r="C80" s="2">
         <v>-1</v>
       </c>
-      <c r="D80" s="6">
+      <c r="D80" s="4">
         <v>0.5</v>
       </c>
-      <c r="E80" s="6">
+      <c r="E80" s="4">
         <v>-2.3988100000000001</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A81" s="5" t="s">
+      <c r="A81" s="3" t="s">
         <v>80</v>
       </c>
       <c r="B81" s="2">
@@ -2081,15 +2081,15 @@
       <c r="C81" s="2">
         <v>-1</v>
       </c>
-      <c r="D81" s="6">
+      <c r="D81" s="4">
         <v>0.89130399999999999</v>
       </c>
-      <c r="E81" s="6">
+      <c r="E81" s="4">
         <v>-2.4516399999999998</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A82" s="5" t="s">
+      <c r="A82" s="3" t="s">
         <v>81</v>
       </c>
       <c r="B82" s="2">
@@ -2098,15 +2098,15 @@
       <c r="C82" s="2">
         <v>-1</v>
       </c>
-      <c r="D82" s="6">
+      <c r="D82" s="4">
         <v>0.55319099999999999</v>
       </c>
-      <c r="E82" s="6">
+      <c r="E82" s="4">
         <v>-2.5596199999999998</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A83" s="5" t="s">
+      <c r="A83" s="3" t="s">
         <v>82</v>
       </c>
       <c r="B83" s="2">
@@ -2115,15 +2115,15 @@
       <c r="C83" s="2">
         <v>-1</v>
       </c>
-      <c r="D83" s="6">
+      <c r="D83" s="4">
         <v>0.53191500000000003</v>
       </c>
-      <c r="E83" s="6">
+      <c r="E83" s="4">
         <v>-2.7194600000000002</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A84" s="5" t="s">
+      <c r="A84" s="3" t="s">
         <v>83</v>
       </c>
       <c r="B84" s="2">
@@ -2132,15 +2132,15 @@
       <c r="C84" s="2">
         <v>-1</v>
       </c>
-      <c r="D84" s="6">
+      <c r="D84" s="4">
         <v>0.97872300000000001</v>
       </c>
-      <c r="E84" s="6">
+      <c r="E84" s="4">
         <v>-2.7932199999999998</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A85" s="5" t="s">
+      <c r="A85" s="3" t="s">
         <v>84</v>
       </c>
       <c r="B85" s="2">
@@ -2149,15 +2149,15 @@
       <c r="C85" s="2">
         <v>-1</v>
       </c>
-      <c r="D85" s="6">
+      <c r="D85" s="4">
         <v>0.72</v>
       </c>
-      <c r="E85" s="6">
+      <c r="E85" s="4">
         <v>-2.86158</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A86" s="5" t="s">
+      <c r="A86" s="3" t="s">
         <v>85</v>
       </c>
       <c r="B86" s="2">
@@ -2166,15 +2166,15 @@
       <c r="C86" s="2">
         <v>-1</v>
       </c>
-      <c r="D86" s="6">
+      <c r="D86" s="4">
         <v>0.653061</v>
       </c>
-      <c r="E86" s="6">
+      <c r="E86" s="4">
         <v>-2.8745799999999999</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A87" s="5" t="s">
+      <c r="A87" s="3" t="s">
         <v>86</v>
       </c>
       <c r="B87" s="2">
@@ -2183,15 +2183,15 @@
       <c r="C87" s="2">
         <v>-1</v>
       </c>
-      <c r="D87" s="6">
+      <c r="D87" s="4">
         <v>0.84782599999999997</v>
       </c>
-      <c r="E87" s="6">
+      <c r="E87" s="4">
         <v>-2.9826999999999999</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A88" s="5" t="s">
+      <c r="A88" s="3" t="s">
         <v>87</v>
       </c>
       <c r="B88" s="2">
@@ -2200,15 +2200,15 @@
       <c r="C88" s="2">
         <v>-1</v>
       </c>
-      <c r="D88" s="6">
+      <c r="D88" s="4">
         <v>0.94</v>
       </c>
-      <c r="E88" s="6">
+      <c r="E88" s="4">
         <v>-3.5889500000000001</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A89" s="5" t="s">
+      <c r="A89" s="3" t="s">
         <v>88</v>
       </c>
       <c r="B89" s="2">
@@ -2217,10 +2217,10 @@
       <c r="C89" s="2">
         <v>-1</v>
       </c>
-      <c r="D89" s="6">
+      <c r="D89" s="4">
         <v>0.89795899999999995</v>
       </c>
-      <c r="E89" s="6">
+      <c r="E89" s="4">
         <v>-3.94591</v>
       </c>
     </row>
